--- a/Mapping files/9-PRODUCT_BANDING.xlsx
+++ b/Mapping files/9-PRODUCT_BANDING.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nedelgad\OneDrive - Nub78\Documents\CISCO tableau OP\Mapping files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274A07B5-AA10-44F3-AB75-573BE10357A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B0E616-0078-4A78-84CA-A195D380418B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9-PRODUCT_BANDING" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'9-PRODUCT_BANDING'!$A$1:$F$553</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="542">
   <si>
     <t>INTERNAL_BE_PRODUCT_FAMILY</t>
   </si>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>CSP2100</t>
-  </si>
-  <si>
-    <t>Mid</t>
   </si>
   <si>
     <t>CTSUCS</t>
@@ -1654,7 +1654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2490,11 +2490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2612,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
         <v>43874.896527777775</v>
@@ -2629,10 +2629,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>43874.896527777775</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2709,10 +2709,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1">
         <v>43874.896527777775</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1">
         <v>43874.896527777775</v>
@@ -2809,10 +2809,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1">
         <v>43874.896527777775</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -2909,10 +2909,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>43874.896527777775</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1">
         <v>43874.896527777775</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -2989,7 +2989,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -3029,7 +3029,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C32" s="1">
         <v>43874.896527777775</v>
@@ -3152,7 +3152,7 @@
         <v>7600</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1">
         <v>43874.896527777775</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -3189,10 +3189,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C35" s="1">
         <v>43874.896527777775</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -3229,10 +3229,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1">
         <v>43874.896527777775</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -3269,7 +3269,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -3289,10 +3289,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1">
         <v>43874.896527777775</v>
@@ -3309,10 +3309,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1">
         <v>43874.896527777775</v>
@@ -3329,10 +3329,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1">
         <v>43874.896527777775</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -3389,10 +3389,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C45" s="1">
         <v>43874.896527777775</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -3429,10 +3429,10 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1">
         <v>43874.896527777775</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -3469,7 +3469,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C50" s="1">
         <v>43874.896527777775</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -3552,7 +3552,7 @@
         <v>7200</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1">
         <v>43874.896527777775</v>
@@ -3569,10 +3569,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1">
         <v>43874.896527777775</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -3629,10 +3629,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C57" s="1">
         <v>43874.896527777775</v>
@@ -3649,10 +3649,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C58" s="1">
         <v>43874.896527777775</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C60" s="1">
         <v>43874.896527777775</v>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C61" s="1">
         <v>43874.896527777775</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -3829,7 +3829,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -3849,10 +3849,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C68" s="1">
         <v>43874.896527777775</v>
@@ -3869,10 +3869,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1">
         <v>44661.926388888889</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -3909,10 +3909,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C71" s="1">
         <v>43874.896527777775</v>
@@ -3929,10 +3929,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C72" s="1">
         <v>43874.896527777775</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
         <v>43874.896527777775</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -4009,10 +4009,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1">
         <v>43874.896527777775</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1">
         <v>43874.896527777775</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1">
         <v>43874.896527777775</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1">
         <v>43874.896527777775</v>
@@ -4149,10 +4149,10 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C83" s="1">
         <v>43874.896527777775</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -4189,7 +4189,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C86" s="1">
         <v>43874.896527777775</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C88" s="1">
         <v>43874.896527777775</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C91" s="1">
         <v>43874.896527777775</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C92" s="1">
         <v>43874.896527777775</v>
@@ -4349,10 +4349,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C93" s="1">
         <v>43874.896527777775</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -4409,10 +4409,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C96" s="1">
         <v>43874.896527777775</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -4469,10 +4469,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C99" s="1">
         <v>43874.896527777775</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C100" s="1">
         <v>43874.896527777775</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C105" s="1">
         <v>43874.896527777775</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C108" s="1">
         <v>44661.926388888889</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -4709,10 +4709,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C111" s="1">
         <v>43874.896527777775</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C112" s="1">
         <v>43874.896527777775</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -4769,10 +4769,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C114" s="1">
         <v>43874.896527777775</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -4829,10 +4829,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C117" s="1">
         <v>43874.896527777775</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C118" s="1">
         <v>43874.896527777775</v>
@@ -4869,10 +4869,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C119" s="1">
         <v>43874.896527777775</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C121" s="1">
         <v>44661.926388888889</v>
@@ -4929,10 +4929,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C122" s="1">
         <v>43874.896527777775</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C123" s="1">
         <v>44056.870138888888</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C127" s="1">
         <v>43874.896527777775</v>
@@ -5049,10 +5049,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C128" s="1">
         <v>43874.896527777775</v>
@@ -5069,10 +5069,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C129" s="1">
         <v>43874.896527777775</v>
@@ -5089,10 +5089,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C130" s="1">
         <v>43874.896527777775</v>
@@ -5109,7 +5109,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C134" s="1">
         <v>43874.896527777775</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C136" s="1">
         <v>43874.896527777775</v>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C137" s="1">
         <v>43874.896527777775</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -5309,7 +5309,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -5349,7 +5349,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -5389,7 +5389,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C149" s="1">
         <v>43874.896527777775</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C150" s="1">
         <v>43874.896527777775</v>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C151" s="1">
         <v>44056.870138888888</v>
@@ -5532,7 +5532,7 @@
         <v>1800</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C152" s="1">
         <v>43874.896527777775</v>
@@ -5549,10 +5549,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C153" s="1">
         <v>43874.896527777775</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -5589,10 +5589,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C155" s="1">
         <v>43874.896527777775</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C156" s="1">
         <v>44661.926388888889</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -5669,10 +5669,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C159" s="1">
         <v>43874.896527777775</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C160" s="1">
         <v>43874.896527777775</v>
@@ -5709,10 +5709,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C161" s="1">
         <v>44661.926388888889</v>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C162" s="1">
         <v>43874.896527777775</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -5769,10 +5769,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C164" s="1">
         <v>43874.896527777775</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C166" s="1">
         <v>43874.896527777775</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5849,10 +5849,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C168" s="1">
         <v>43874.896527777775</v>
@@ -5869,7 +5869,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5889,7 +5889,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5909,10 +5909,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C171" s="1">
         <v>43874.896527777775</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -5949,7 +5949,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C175" s="1">
         <v>43874.896527777775</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C176" s="1">
         <v>43874.896527777775</v>
@@ -6029,10 +6029,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C177" s="1">
         <v>43874.896527777775</v>
@@ -6049,7 +6049,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B178" t="s">
         <v>10</v>
@@ -6069,10 +6069,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C179" s="1">
         <v>43874.896527777775</v>
@@ -6089,7 +6089,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -6129,10 +6129,10 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C182" s="1">
         <v>43874.896527777775</v>
@@ -6149,10 +6149,10 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C183" s="1">
         <v>43874.896527777775</v>
@@ -6169,7 +6169,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B184" t="s">
         <v>10</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -6209,10 +6209,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C186" s="1">
         <v>43874.896527777775</v>
@@ -6229,10 +6229,10 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C187" s="1">
         <v>43874.896527777775</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B188" t="s">
         <v>10</v>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C190" s="1">
         <v>43874.896527777775</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -6329,10 +6329,10 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C192" s="1">
         <v>43874.896527777775</v>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B195" t="s">
         <v>10</v>
@@ -6409,10 +6409,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C196" s="1">
         <v>43874.896527777775</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6449,10 +6449,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C198" s="1">
         <v>43874.896527777775</v>
@@ -6489,10 +6489,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C200" s="1">
         <v>43874.896527777775</v>
@@ -6509,10 +6509,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C201" s="1">
         <v>43874.896527777775</v>
@@ -6529,10 +6529,10 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C202" s="1">
         <v>43874.896527777775</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C203" s="1">
         <v>43874.896527777775</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C204" s="1">
         <v>43874.896527777775</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -6629,7 +6629,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -6669,7 +6669,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -6689,10 +6689,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C210" s="1">
         <v>43874.896527777775</v>
@@ -6709,10 +6709,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C211" s="1">
         <v>43874.896527777775</v>
@@ -6729,10 +6729,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C212" s="1">
         <v>43874.896527777775</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C214" s="1">
         <v>43874.896527777775</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B216" t="s">
         <v>10</v>
@@ -6829,10 +6829,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B217" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C217" s="1">
         <v>44661.926388888889</v>
@@ -6849,7 +6849,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -6869,10 +6869,10 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C219" s="1">
         <v>43874.896527777775</v>
@@ -6889,10 +6889,10 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C220" s="1">
         <v>43874.896527777775</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
         <v>10</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -6969,7 +6969,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -6989,10 +6989,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C225" s="1">
         <v>43874.896527777775</v>
@@ -7009,7 +7009,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B227" t="s">
         <v>10</v>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
@@ -7089,10 +7089,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C230" s="1">
         <v>43874.896527777775</v>
@@ -7112,7 +7112,7 @@
         <v>3700</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C231" s="1">
         <v>43874.896527777775</v>
@@ -7129,7 +7129,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -7169,10 +7169,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C234" s="1">
         <v>43874.896527777775</v>
@@ -7189,7 +7189,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -7209,10 +7209,10 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C236" s="1">
         <v>43874.896527777775</v>
@@ -7229,7 +7229,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B237" t="s">
         <v>10</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B238" t="s">
         <v>10</v>
@@ -7269,10 +7269,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C239" s="1">
         <v>43874.896527777775</v>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -7309,7 +7309,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
         <v>10</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
         <v>7</v>
@@ -7349,7 +7349,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B243" t="s">
         <v>10</v>
@@ -7369,7 +7369,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B244" t="s">
         <v>7</v>
@@ -7389,7 +7389,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B245" t="s">
         <v>10</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
         <v>10</v>
@@ -7429,10 +7429,10 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C247" s="1">
         <v>44661.926388888889</v>
@@ -7449,10 +7449,10 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C248" s="1">
         <v>43874.896527777775</v>
@@ -7469,10 +7469,10 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C249" s="1">
         <v>44661.926388888889</v>
@@ -7489,10 +7489,10 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C250" s="1">
         <v>43874.896527777775</v>
@@ -7509,10 +7509,10 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C251" s="1">
         <v>43874.896527777775</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B252" t="s">
         <v>7</v>
@@ -7549,10 +7549,10 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C253" s="1">
         <v>43874.896527777775</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>10</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B255" t="s">
         <v>7</v>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C256" s="1">
         <v>43874.896527777775</v>
@@ -7629,10 +7629,10 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C257" s="1">
         <v>43874.896527777775</v>
@@ -7649,7 +7649,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -7669,7 +7669,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -7689,10 +7689,10 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C260" s="1">
         <v>43874.896527777775</v>
@@ -7709,10 +7709,10 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C261" s="1">
         <v>43874.896527777775</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -7749,10 +7749,10 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C263" s="1">
         <v>43874.896527777775</v>
@@ -7769,7 +7769,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -7789,7 +7789,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -7809,7 +7809,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>10</v>
@@ -7829,10 +7829,10 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C267" s="1">
         <v>43874.896527777775</v>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C268" s="1">
         <v>43874.896527777775</v>
@@ -7869,10 +7869,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C269" s="1">
         <v>43874.896527777775</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -7909,10 +7909,10 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C271" s="1">
         <v>43874.896527777775</v>
@@ -7929,7 +7929,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B272" t="s">
         <v>7</v>
@@ -7949,7 +7949,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B273" t="s">
         <v>10</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -7989,7 +7989,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" t="s">
         <v>10</v>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -8029,7 +8029,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C278" s="1">
         <v>43874.896527777775</v>
@@ -8069,7 +8069,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -8089,10 +8089,10 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C280" s="1">
         <v>43874.896527777775</v>
@@ -8112,7 +8112,7 @@
         <v>15454</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C281" s="1">
         <v>43874.896527777775</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B282" t="s">
         <v>10</v>
@@ -8149,10 +8149,10 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C283" s="1">
         <v>43874.896527777775</v>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -8189,7 +8189,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>10</v>
@@ -8209,10 +8209,10 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C286" s="1">
         <v>43874.896527777775</v>
@@ -8232,7 +8232,7 @@
         <v>2600</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C287" s="1">
         <v>43874.896527777775</v>
@@ -8249,7 +8249,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>10</v>
@@ -8269,7 +8269,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -8289,7 +8289,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>10</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -8329,7 +8329,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>10</v>
@@ -8349,10 +8349,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C293" s="1">
         <v>43874.896527777775</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>10</v>
@@ -8389,10 +8389,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C295" s="1">
         <v>43874.896527777775</v>
@@ -8409,7 +8409,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>10</v>
@@ -8429,7 +8429,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -8449,10 +8449,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C298" s="1">
         <v>43874.896527777775</v>
@@ -8469,7 +8469,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -8489,7 +8489,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -8509,10 +8509,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C301" s="1">
         <v>43874.896527777775</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -8549,10 +8549,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C303" s="1">
         <v>43874.896527777775</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -8609,7 +8609,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>10</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>10</v>
@@ -8709,7 +8709,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -8729,10 +8729,10 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C312" s="1">
         <v>43874.896527777775</v>
@@ -8749,7 +8749,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>10</v>
@@ -8769,7 +8769,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -8789,10 +8789,10 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C315" s="1">
         <v>43874.896527777775</v>
@@ -8809,7 +8809,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -8829,7 +8829,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -8869,10 +8869,10 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C319" s="1">
         <v>43874.896527777775</v>
@@ -8889,10 +8889,10 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C320" s="1">
         <v>43874.896527777775</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -8949,7 +8949,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>10</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -8989,7 +8989,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -9029,7 +9029,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>10</v>
@@ -9049,7 +9049,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>10</v>
@@ -9069,10 +9069,10 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C329" s="1">
         <v>43874.896527777775</v>
@@ -9089,7 +9089,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>10</v>
@@ -9109,10 +9109,10 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C331" s="1">
         <v>43874.896527777775</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>10</v>
@@ -9149,10 +9149,10 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C333" s="1">
         <v>43874.896527777775</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>7</v>
@@ -9189,7 +9189,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>7</v>
@@ -9209,10 +9209,10 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C336" s="1">
         <v>43874.896527777775</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>7</v>
@@ -9249,7 +9249,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>10</v>
@@ -9269,10 +9269,10 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C339" s="1">
         <v>43874.896527777775</v>
@@ -9289,7 +9289,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>7</v>
@@ -9309,7 +9309,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>7</v>
@@ -9329,10 +9329,10 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C342" s="1">
         <v>43874.896527777775</v>
@@ -9349,7 +9349,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>10</v>
@@ -9369,7 +9369,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>7</v>
@@ -9389,7 +9389,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>10</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>10</v>
@@ -9429,7 +9429,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -9449,7 +9449,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B350" t="s">
         <v>10</v>
@@ -9509,10 +9509,10 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B351" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C351" s="1">
         <v>43874.896527777775</v>
@@ -9529,10 +9529,10 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C352" s="1">
         <v>43874.896527777775</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B353" t="s">
         <v>10</v>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C354" s="1">
         <v>43874.896527777775</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B355" t="s">
         <v>10</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B356" t="s">
         <v>10</v>
@@ -9629,10 +9629,10 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C357" s="1">
         <v>43874.896527777775</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -9729,10 +9729,10 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C362" s="1">
         <v>43874.896527777775</v>
@@ -9749,10 +9749,10 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C363" s="1">
         <v>43874.896527777775</v>
@@ -9769,10 +9769,10 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C364" s="1">
         <v>44661.926388888889</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B365" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C365" s="1">
         <v>43874.896527777775</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B366" t="s">
         <v>10</v>
@@ -9829,7 +9829,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B367" t="s">
         <v>7</v>
@@ -9849,7 +9849,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B368" t="s">
         <v>10</v>
@@ -9889,10 +9889,10 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C370" s="1">
         <v>43874.896527777775</v>
@@ -9909,10 +9909,10 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C371" s="1">
         <v>43874.896527777775</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B372" t="s">
         <v>7</v>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B373" t="s">
         <v>10</v>
@@ -9969,10 +9969,10 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C374" s="1">
         <v>43874.896527777775</v>
@@ -9989,10 +9989,10 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C375" s="1">
         <v>43874.896527777775</v>
@@ -10009,7 +10009,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B376" t="s">
         <v>7</v>
@@ -10029,10 +10029,10 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C377" s="1">
         <v>43874.896527777775</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -10089,7 +10089,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -10149,10 +10149,10 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C383" s="1">
         <v>43874.896527777775</v>
@@ -10169,7 +10169,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -10209,7 +10209,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B388" t="s">
         <v>10</v>
@@ -10269,7 +10269,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -10289,10 +10289,10 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C390" s="1">
         <v>43874.896527777775</v>
@@ -10309,10 +10309,10 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C391" s="1">
         <v>43874.896527777775</v>
@@ -10329,10 +10329,10 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C392" s="1">
         <v>43874.896527777775</v>
@@ -10349,7 +10349,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -10369,10 +10369,10 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C394" s="1">
         <v>43874.896527777775</v>
@@ -10389,10 +10389,10 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C395" s="1">
         <v>43874.896527777775</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B396" t="s">
         <v>7</v>
@@ -10429,10 +10429,10 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B397" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C397" s="1">
         <v>43874.896527777775</v>
@@ -10449,10 +10449,10 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C398" s="1">
         <v>43874.896527777775</v>
@@ -10469,10 +10469,10 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C399" s="1">
         <v>43874.896527777775</v>
@@ -10489,10 +10489,10 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B400" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C400" s="1">
         <v>43874.896527777775</v>
@@ -10509,10 +10509,10 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C401" s="1">
         <v>43874.896527777775</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -10549,7 +10549,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -10569,10 +10569,10 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B404" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C404" s="1">
         <v>43874.896527777775</v>
@@ -10589,7 +10589,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B405" t="s">
         <v>7</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B406" t="s">
         <v>7</v>
@@ -10629,7 +10629,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -10649,7 +10649,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B408" t="s">
         <v>10</v>
@@ -10669,7 +10669,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B410" t="s">
         <v>10</v>
@@ -10709,10 +10709,10 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B411" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C411" s="1">
         <v>43874.896527777775</v>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -10749,10 +10749,10 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C413" s="1">
         <v>43874.896527777775</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B414" t="s">
         <v>10</v>
@@ -10789,7 +10789,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B415" t="s">
         <v>10</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B416" t="s">
         <v>10</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B417" t="s">
         <v>10</v>
@@ -10869,7 +10869,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B419" t="s">
         <v>10</v>
@@ -10889,10 +10889,10 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B420" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C420" s="1">
         <v>43874.896527777775</v>
@@ -10909,10 +10909,10 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B421" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C421" s="1">
         <v>43874.896527777775</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B422" t="s">
         <v>10</v>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
@@ -11009,10 +11009,10 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B426" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C426" s="1">
         <v>43874.896527777775</v>
@@ -11029,10 +11029,10 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B427" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C427" s="1">
         <v>43874.896527777775</v>
@@ -11049,10 +11049,10 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B428" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C428" s="1">
         <v>43874.896527777775</v>
@@ -11069,10 +11069,10 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B429" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C429" s="1">
         <v>43874.896527777775</v>
@@ -11092,7 +11092,7 @@
         <v>5900</v>
       </c>
       <c r="B430" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C430" s="1">
         <v>43874.896527777775</v>
@@ -11109,7 +11109,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -11129,10 +11129,10 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B432" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C432" s="1">
         <v>43874.896527777775</v>
@@ -11149,10 +11149,10 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B433" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C433" s="1">
         <v>43874.896527777775</v>
@@ -11169,10 +11169,10 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B434" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C434" s="1">
         <v>43874.896527777775</v>
@@ -11189,10 +11189,10 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B435" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C435" s="1">
         <v>43874.896527777775</v>
@@ -11209,7 +11209,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B436" t="s">
         <v>7</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B437" t="s">
         <v>10</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -11289,10 +11289,10 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C440" s="1">
         <v>43874.896527777775</v>
@@ -11309,7 +11309,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -11329,7 +11329,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -11349,7 +11349,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B443" t="s">
         <v>10</v>
@@ -11372,7 +11372,7 @@
         <v>2800</v>
       </c>
       <c r="B444" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C444" s="1">
         <v>43874.896527777775</v>
@@ -11389,7 +11389,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -11409,10 +11409,10 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B446" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C446" s="1">
         <v>43874.896527777775</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -11449,7 +11449,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -11469,10 +11469,10 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B449" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C449" s="1">
         <v>43874.896527777775</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -11509,7 +11509,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B451" t="s">
         <v>10</v>
@@ -11529,10 +11529,10 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B452" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C452" s="1">
         <v>43874.896527777775</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B454" t="s">
         <v>10</v>
@@ -11589,10 +11589,10 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B455" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C455" s="1">
         <v>43874.896527777775</v>
@@ -11609,7 +11609,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B456" t="s">
         <v>10</v>
@@ -11629,7 +11629,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B457" t="s">
         <v>10</v>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B458" t="s">
         <v>7</v>
@@ -11689,7 +11689,7 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B460" t="s">
         <v>10</v>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B461" t="s">
         <v>7</v>
@@ -11729,10 +11729,10 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B462" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C462" s="1">
         <v>43874.896527777775</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B463" t="s">
         <v>10</v>
@@ -11769,7 +11769,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B464" t="s">
         <v>7</v>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B465" t="s">
         <v>7</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B466" t="s">
         <v>7</v>
@@ -11829,10 +11829,10 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B467" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C467" s="1">
         <v>43874.896527777775</v>
@@ -11849,7 +11849,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
@@ -11869,10 +11869,10 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B469" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C469" s="1">
         <v>43874.896527777775</v>
@@ -11889,10 +11889,10 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B470" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C470" s="1">
         <v>43874.896527777775</v>
@@ -11909,7 +11909,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B471" t="s">
         <v>10</v>
@@ -11929,7 +11929,7 @@
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
@@ -11949,10 +11949,10 @@
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B473" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C473" s="1">
         <v>43874.896527777775</v>
@@ -11969,10 +11969,10 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B474" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C474" s="1">
         <v>43874.896527777775</v>
@@ -11989,10 +11989,10 @@
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B475" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C475" s="1">
         <v>43874.896527777775</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B476" t="s">
         <v>10</v>
@@ -12029,7 +12029,7 @@
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
@@ -12049,10 +12049,10 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B478" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C478" s="1">
         <v>43874.896527777775</v>
@@ -12069,7 +12069,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -12089,10 +12089,10 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B480" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C480" s="1">
         <v>43874.896527777775</v>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -12129,7 +12129,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B482" t="s">
         <v>7</v>
@@ -12149,10 +12149,10 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B483" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C483" s="1">
         <v>43874.896527777775</v>
@@ -12169,10 +12169,10 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B484" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C484" s="1">
         <v>43874.896527777775</v>
@@ -12189,10 +12189,10 @@
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B485" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C485" s="1">
         <v>44661.926388888889</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B486" t="s">
         <v>10</v>
@@ -12229,10 +12229,10 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B487" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C487" s="1">
         <v>43874.896527777775</v>
@@ -12249,10 +12249,10 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B488" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C488" s="1">
         <v>43874.896527777775</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B489" t="s">
         <v>7</v>
@@ -12289,10 +12289,10 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B490" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C490" s="1">
         <v>43874.896527777775</v>
@@ -12309,10 +12309,10 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B491" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C491" s="1">
         <v>43874.896527777775</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B492" t="s">
         <v>10</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B493" t="s">
         <v>7</v>
@@ -12369,10 +12369,10 @@
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B494" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C494" s="1">
         <v>43874.896527777775</v>
@@ -12389,10 +12389,10 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
+        <v>485</v>
+      </c>
+      <c r="B495" t="s">
         <v>486</v>
-      </c>
-      <c r="B495" t="s">
-        <v>487</v>
       </c>
       <c r="C495" s="1">
         <v>43874.896527777775</v>
@@ -12409,7 +12409,7 @@
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B496" t="s">
         <v>10</v>
@@ -12429,7 +12429,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B499" t="s">
         <v>7</v>
@@ -12489,10 +12489,10 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B500" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C500" s="1">
         <v>43874.896527777775</v>
@@ -12509,7 +12509,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -12529,10 +12529,10 @@
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B502" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C502" s="1">
         <v>43874.896527777775</v>
@@ -12549,10 +12549,10 @@
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B503" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C503" s="1">
         <v>44661.926388888889</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B504" t="s">
         <v>10</v>
@@ -12589,7 +12589,7 @@
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B505" t="s">
         <v>7</v>
@@ -12609,7 +12609,7 @@
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -12629,10 +12629,10 @@
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B507" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C507" s="1">
         <v>43874.896527777775</v>
@@ -12649,7 +12649,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -12669,7 +12669,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B509" t="s">
         <v>10</v>
@@ -12689,10 +12689,10 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B510" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C510" s="1">
         <v>43874.896527777775</v>
@@ -12709,7 +12709,7 @@
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B511" t="s">
         <v>10</v>
@@ -12729,7 +12729,7 @@
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B512" t="s">
         <v>10</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B513" t="s">
         <v>10</v>
@@ -12769,7 +12769,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B514" t="s">
         <v>7</v>
@@ -12789,10 +12789,10 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B515" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C515" s="1">
         <v>43874.896527777775</v>
@@ -12809,10 +12809,10 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B516" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C516" s="1">
         <v>43874.896527777775</v>
@@ -12829,7 +12829,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B517" t="s">
         <v>7</v>
@@ -12849,7 +12849,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B518" t="s">
         <v>10</v>
@@ -12869,7 +12869,7 @@
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B519" t="s">
         <v>10</v>
@@ -12889,7 +12889,7 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B520" t="s">
         <v>7</v>
@@ -12909,10 +12909,10 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B521" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C521" s="1">
         <v>43874.896527777775</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B522" t="s">
         <v>10</v>
@@ -12952,7 +12952,7 @@
         <v>1700</v>
       </c>
       <c r="B523" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C523" s="1">
         <v>43874.896527777775</v>
@@ -12969,10 +12969,10 @@
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B524" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C524" s="1">
         <v>43874.896527777775</v>
@@ -12989,7 +12989,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B525" t="s">
         <v>7</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B526" t="s">
         <v>7</v>
@@ -13029,10 +13029,10 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B527" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C527" s="1">
         <v>43874.896527777775</v>
@@ -13049,10 +13049,10 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B528" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C528" s="1">
         <v>44056.870138888888</v>
@@ -13069,10 +13069,10 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B529" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C529" s="1">
         <v>43874.896527777775</v>
@@ -13089,10 +13089,10 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B530" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C530" s="1">
         <v>43874.896527777775</v>
@@ -13109,7 +13109,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B531" t="s">
         <v>7</v>
@@ -13129,10 +13129,10 @@
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B532" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C532" s="1">
         <v>43874.896527777775</v>
@@ -13149,10 +13149,10 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B533" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C533" s="1">
         <v>44661.926388888889</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B534" t="s">
         <v>10</v>
@@ -13189,7 +13189,7 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B535" t="s">
         <v>10</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B536" t="s">
         <v>10</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -13249,7 +13249,7 @@
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B538" t="s">
         <v>10</v>
@@ -13269,7 +13269,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
@@ -13292,7 +13292,7 @@
         <v>3800</v>
       </c>
       <c r="B540" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C540" s="1">
         <v>43874.896527777775</v>
@@ -13309,10 +13309,10 @@
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B541" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C541" s="1">
         <v>43874.896527777775</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B542" t="s">
         <v>7</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B543" t="s">
         <v>10</v>
@@ -13369,10 +13369,10 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B544" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C544" s="1">
         <v>43874.896527777775</v>
@@ -13389,7 +13389,7 @@
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B545" t="s">
         <v>7</v>
@@ -13409,7 +13409,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B546" t="s">
         <v>7</v>
@@ -13429,10 +13429,10 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B547" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C547" s="1">
         <v>43874.896527777775</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B548" t="s">
         <v>10</v>
@@ -13469,7 +13469,7 @@
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B549" t="s">
         <v>7</v>
@@ -13489,7 +13489,7 @@
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B550" t="s">
         <v>7</v>
@@ -13509,7 +13509,7 @@
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B551" t="s">
         <v>7</v>
@@ -13529,7 +13529,7 @@
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B552" t="s">
         <v>7</v>
@@ -13549,7 +13549,7 @@
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B553" t="s">
         <v>10</v>
@@ -13568,6 +13568,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F553" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
